--- a/continew-webapi/src/main/resources/static/stock_move.xlsx
+++ b/continew-webapi/src/main/resources/static/stock_move.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\java\continew-admin\continew-webapi\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9CFFCF-DA97-429F-AD15-535AA72C0B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D906C8-4CE4-456E-B0D2-6577D61E04C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6190" yWindow="2120" windowWidth="26110" windowHeight="18320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="4260" windowWidth="30500" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>{name}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,7 +71,56 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{goodsList.status}</t>
+    <t>{goodsList.expiryTime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出仓仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{stockMoveNo}</t>
+  </si>
+  <si>
+    <t>移库单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入仓名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {stockInWhseName}</t>
+  </si>
+  <si>
+    <t>{stockInId}</t>
+  </si>
+  <si>
+    <t>{stockOutWhseName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{stockOutId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移库时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{moveTime}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -79,48 +128,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{goodsList.expiryTime}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出仓仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{stockMoveNo}</t>
-  </si>
-  <si>
-    <t>移库单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入仓名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> {stockInWhseName}</t>
-  </si>
-  <si>
-    <t>{stockInId}</t>
-  </si>
-  <si>
-    <t>{stockOutWhseName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{stockOutId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划数量</t>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{goodsList.goodsUnit}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{status}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,10 +180,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,71 +477,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.58203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.4140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="2"/>
+    <col min="6" max="6" width="23.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -533,16 +565,19 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -553,21 +588,24 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
